--- a/NLP_Market-research/자연어처리.xlsx
+++ b/NLP_Market-research/자연어처리.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doub\jay\3 시장조사_due-date_1015\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\JAY\Work\3 시장조사_due-date_1015\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49868328-6AA3-44D6-8399-01B2C69F0E1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="메모" sheetId="2" r:id="rId1"/>
     <sheet name="BERT" sheetId="1" r:id="rId2"/>
     <sheet name="Text Analysis" sheetId="3" r:id="rId3"/>
-    <sheet name="TA Business" sheetId="4" r:id="rId4"/>
-    <sheet name="솔트룩스" sheetId="5" r:id="rId5"/>
-    <sheet name="인공지능신문" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
+    <sheet name="TA Business" sheetId="4" r:id="rId5"/>
+    <sheet name="솔트룩스" sheetId="5" r:id="rId6"/>
+    <sheet name="인공지능신문" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="494">
   <si>
     <t>정보추출 Information Extraction. IE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1524,16 +1524,529 @@
     <t>https://wikidocs.net/21668</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>형태소 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체 인식(NER)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오타 교정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>키워드 랭킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문서 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인텐트 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>군집화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유사도 계산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 서술(뉴스, 도서 등)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 요약_축약형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 요약_생성형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Techniques</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모바일 시대를 이끈 두 기업, 구글과 애플의 미래 준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lgeri.com/report/view.do?idx=19630</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LG경제연구원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 인간과 같은 대화형 인공지능, Duplex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 인공지능으로 지능화된 안드로이드, ‘Android Pie’</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* Siri 기반의 인공지능 생태계 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* Watch 기반의 생태계 구축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기술특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애플</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생태계 전략</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업 분야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혁신 기술의 선제적 시도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상용화 가능 수준의 기술의 완결성 추구</t>
+  </si>
+  <si>
+    <t>개방을 통한 참여자 확대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>독자 생태계 기반 + 제한적 제휴/협력</t>
+  </si>
+  <si>
+    <t>대화형 인공지능 기반의 B2C 영역 (홈, 엔터테인먼트, 쇼핑, 예약 등) 자율주행, 위치기반 서비스 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화형 인공지능 기반의 B2C 영역 (홈, 엔터테인먼트, 쇼핑, 예약 등) VR, Fitness/HealthCare, 인증/결제 등</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스케어는 IT 기업들의 새로운 성장 동력이 될 수 있을까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.lgeri.com/report/view.do?idx=19626</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POSRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로봇이 오피스 풍경을 바꿨어요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.posri.re.kr/ko/board/content/14634</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">그동안 업무 자동화는 전사적 자원관리(Enterprise Resource Planning·ERP)를 중심으로 진행돼왔다. 하지만 이미 ERP를 통한 업무 효율성 개선은 한계에 직면했고, 여전히 많은 인력이 데이터를 수집하고 정리하는 단순 업무에 시간을 뺏기고 있다. 
+사무실에서 이뤄지는 일들을 보면 시스템이나 웹에 접속해 데이터를 읽고 취합, 복사, 계산하는 단순 업무가 70%에 달한다. 아무리 복잡한 업무라도 이러한 단순 업무가 정해진 기준에 따라 결합된 것에 불과하다는 사실을 알 수 있다. 그렇기에 해외 유수 기업은 비용 절감을 위해 이러한 업무를 ‘소프트웨어 알고리즘’으로 자동화하고 있다. 
+해외 컨설팅업체 PwC는 일반 사무실 업무의 45%가 자동화가 가능하고, 이를 통해 2조 달러(2278조2000억 원)가량의 비용을 절감할 수 있다고 전망한다. 실제 해외 모 기업에서 조사한 비영업부서의 비용을 비교해보면 절감 수준을 가늠할 수 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 자동화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나부터도 챗봇을 위한 작업을 하면서 텍스트 AI 회사에 다니면서 직접 키워드 분석을 하고 있는게 아이러니 했다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떻게 하면 텍스트분석을 업무에 녹여낼 수 있을까를 고민해보면 좋을 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt; 학계에서 요약된 논문 내용을 통해 본인한테 필요한 내용을 찾아갈 수 있도록 돕는다거나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt; 업무 중 관련된 메일을 자동으로 레이블링해준다거나 // 물론 이런건 MS랑 구글이 워낙 잘 하고 있지만 이런 개념으로 뭔가 또 다른걸 뽑아낼 수 없을까</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고위험 고객 대상 대출심사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>계약관리와 위험관리 관련 업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">영국 한 보험사는 사나흘씩 걸리던 500여 건의 고객 보험증권 처리 업무를 ‘퍼피’라는 SW로봇이 30분 만에 처리한다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market
+(산업군)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player
+(사업자, 학계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 자동화는 제조·건설업의 경영지원 분야로 확산 중 / 제조·서비스·여행·레저 등 관심 분야가 넓어지고 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인공지능을 결합한 RPA (업무자동화) 검색할 것</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미국 로펌' 베이커앤드호스테틀러' 변호사 업무의 30~40%를 차지하는 판례 분석을 AI를 통해 자동화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리나라의 한 법률회사도 건당 30만~40만 원 하는 고객의 채무소송 소장 작성을 AI를 이용해 3만9000원에 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판례 분석 자동화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법률회사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소장 자동 서술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진 판독으로 손해율 산정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보험 보상심사, 보상금 산정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금웅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스포츠 중계 자동 요약, 정리 메거진 발송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언론사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>△금융사기 본점접수 △금융거래 목적확인 △은행 업무양식 외부 발송 △고객 알림톡 안내발송 등 / 고객이 질문한 내용과 연관된 키워드를 추천</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗봇 / AI 금융비서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융사기 차단</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신한은행 'AI몰리' : 업무처리에 대한 전체적 가이드 제공 플랫폼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업은행 'IBK 피싱스톱' : 통화 도중 보이스피싱 사기 확률이 일정 수준에 도달하면 경고 음성과 진동으로 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업은 어떻게 AI(인공지능)를 도입하는가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.posri.re.kr/ko/board/content/15639</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌 기업들은 ‘고객 경험 개선  비용 절감  신규 비즈니스 창출’ 의 순서로 AI의 활용 분야를 넓혀나가는 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 솔루션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상 비서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스 자동화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임베디드 AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 비서처럼 사용자가 요구하는 작업을 처리하고 사용자에게 특화된 서비스를 제공하는 인공지능 SW 에이전트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음성이나 문자를 통해 사용자와 대화를 하고, 사용자가 원하는 작업을 수행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대화형 (챗봇/콜봇)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>머신 러닝 등의 기술을 활용하여 대용량 데이터를 분석하고, 이를 통해 예측 결과를 제시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인간이 수행하는 생산, 사무 등의 업무를 자동화하여 수행. 예) RPA(Robot Process Automation)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 연결 없이 소형기기에서 바로 구현되는 AI를 의미하며, 최근 다양한 사물에 내장되는 인공지능 SW가 대표적</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 은행, 보험 등 금융업에서는 RPA 활용 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 유통업에 속한 기업들을 중심으로의 챗봇, 가상비서 제품 활용 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→ 주로 단기적 성과 창출 가능 영역 중심으로 AI 수요 증대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* AI를 활용한 고유 경쟁력 창출을 위한 실험적인 프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 업무영역 예시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>챗봇, 가상비서 등을 활용한 고객 편의 제공</t>
+  </si>
+  <si>
+    <t>HR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예측 분석 모델, 가상 비서 활용</t>
+  </si>
+  <si>
+    <t>Desk Workers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임베디드 AI, 가상 비서, RPA 활용</t>
+  </si>
+  <si>
+    <t>Security</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴 인식, 음성 인식, 언어 인식 기술 활용</t>
+  </si>
+  <si>
+    <t>영업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고객 예측, 시장 수요 예측 활용</t>
+  </si>
+  <si>
+    <t>물류, 운송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자율 주행, 가상 비서 활용</t>
+  </si>
+  <si>
+    <t>생산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이버 물리 시스템, 프로세스 자동화 활용</t>
+  </si>
+  <si>
+    <t>텍스트 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기계번역 MT</t>
+  </si>
+  <si>
+    <t>기계독해 MRC</t>
+  </si>
+  <si>
+    <t>질의응답 자동 추출 QA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구문 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 분류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 객체 인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음성 뀨???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음성합성 TTS</t>
+  </si>
+  <si>
+    <t>음성인식 STT</t>
+  </si>
+  <si>
+    <t>복합추론</t>
+  </si>
+  <si>
+    <t>지식학습</t>
+  </si>
+  <si>
+    <t>리포트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글이 선택한 바이오 기업들</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.posri.re.kr/ko/board/content/15228</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주요 자연어 처리 시장 플레이어 : IBM Corporation (IBM), Microsoft Corporation (Microsoft), Alphabet Inc. (Google), Amazon Web Services, Inc. (AWS), 3M Company (3M), Veritone, Inc. ( Veritone), Dolbey Systems, Inc. (Dolbey), Apple Inc (Apple), Facebook, Inc. (Facebook), Intel Corporation (Intel), SAS Institute Inc. (SAS Institute), Baidu, Inc. (Baidu), Bitext Innovations, SL (Bitext), Health Fidelity, Inc. (Health Fidelity), Linguamatics Ltd. (Linguamatics), Conversica, Inc. (Conversica), SparkCognition, Narrative Science, Automated Insights, Inc. (Automated Insights) 및 Inbenta Technologies Inc. (Inbenta Technologies).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.marketsandmarkets.com/Market-Reports/natural-language-processing-nlp-825.html?gclid=CjwKCAiAqJn9BRB0EiwAJ1SztR6JAeRPbfPl7Gxp7A7JW2nS4p_fSewPyoGOLmTSfOIjnEAJigsp6RoC9oAQAvD_BwE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구글링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국정보화진흥원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.nia.or.kr/site/nia_kor/ex/bbs/View.do?cbIdx=39485&amp;bcIdx=21464&amp;parentSeq=21464</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로벌 인공지능 동향(Global AI Insight) vol.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google은 음성인식 및 대화형 AI 기술 개선을 위해 다양한 프로젝트를 추진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연어 처리 벤치마크인 SuperGLUE를 도입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日 AI스타트업, 목소리 기반 감정인식 솔루션 공개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 음성 샘플로 알고리즘을 훈련시켜, 사람의 음성을 기쁨, 분노, 평정, 슬픔 등 4가지 감정으로 해석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 음성의 고저, 속도, 힘 등의 특성을 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;- &quot;@"/>
     <numFmt numFmtId="177" formatCode="\•\ @"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1702,6 +2215,32 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1765,7 +2304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1865,6 +2404,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1895,7 +2458,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1909,6 +2472,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>13941</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9433560" y="6736080"/>
+          <a:ext cx="2025621" cy="1188720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2173,11 +2779,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N38" sqref="N1:P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2654,13 +3260,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B41" r:id="rId1" display="http://www.intelloid.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B43" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B45" r:id="rId3" display="http://www.saltlux.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B46" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B47" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B48" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B49" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B41" r:id="rId1" display="http://www.intelloid.com/"/>
+    <hyperlink ref="B43" r:id="rId2"/>
+    <hyperlink ref="B45" r:id="rId3" display="http://www.saltlux.com/"/>
+    <hyperlink ref="B46" r:id="rId4"/>
+    <hyperlink ref="B47" r:id="rId5"/>
+    <hyperlink ref="B48" r:id="rId6"/>
+    <hyperlink ref="B49" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
@@ -2668,7 +3274,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2852,11 +3458,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD102"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -19744,8 +20350,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D95" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D102" r:id="rId2" xr:uid="{D907B8B3-6B4E-41EC-A554-B24FDB97D030}"/>
+    <hyperlink ref="D95" r:id="rId1"/>
+    <hyperlink ref="D102" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId3"/>
@@ -19753,7 +20359,686 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="4.796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" style="2" customWidth="1"/>
+    <col min="5" max="6" width="13" style="2" customWidth="1"/>
+    <col min="7" max="8" width="18.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B2" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>412</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>413</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C5" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C6" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C7" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C10" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C11" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C12" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C13" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C14" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C15" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="J15" s="38" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C16" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J16" s="39" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C17" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C18" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C19" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C20" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C21" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C22" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C23" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="K23" s="34" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B24" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="K24" s="34" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C25" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C26" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="K26" s="34" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B27" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C28" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="K28" s="37" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C29" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C30" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>423</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>424</v>
+      </c>
+      <c r="F30" s="39" t="s">
+        <v>409</v>
+      </c>
+      <c r="G30" s="39" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J31" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D32" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="33" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D33" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D34" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G34" s="37" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="35" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D35" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="36" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D36" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="39" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D39" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D40" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="L41" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D42" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="L43" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="44" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="L44" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="45" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="L45" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="46" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="K46" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="47" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="K47" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="48" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="K48" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="K49" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="K50" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="L51" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="L52" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="L53" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="L54" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="L55" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="L56" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="L57" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="J59" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="J60" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="I62" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="J64" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="K65" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="I67" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="J68" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="J69" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="K70" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K71" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K72" s="37" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K73" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K74" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -20220,8 +21505,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA963417-4738-4999-AC07-A06E50228B92}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J366"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24438,8 +25723,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9072FBA9-8009-42D0-9B0F-5941047973A9}">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">

--- a/NLP_Market-research/자연어처리.xlsx
+++ b/NLP_Market-research/자연어처리.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\JAY\Work\3 시장조사_due-date_1015\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doub\jay\y_Study\NLP_Market-research\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F983CBDF-26FC-47AA-BF68-33A05970F45F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3"/>
+    <workbookView xWindow="-28898" yWindow="0" windowWidth="28996" windowHeight="16395" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메모" sheetId="2" r:id="rId1"/>
     <sheet name="BERT" sheetId="1" r:id="rId2"/>
     <sheet name="Text Analysis" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId4"/>
-    <sheet name="TA Business" sheetId="4" r:id="rId5"/>
-    <sheet name="솔트룩스" sheetId="5" r:id="rId6"/>
-    <sheet name="인공지능신문" sheetId="6" r:id="rId7"/>
+    <sheet name="TA Business" sheetId="4" r:id="rId4"/>
+    <sheet name="솔트룩스" sheetId="5" r:id="rId5"/>
+    <sheet name="인공지능신문" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="559">
   <si>
     <t>정보추출 Information Extraction. IE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1962,10 +1964,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>음성 뀨???</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>음성합성 TTS</t>
   </si>
   <si>
@@ -2035,18 +2033,1501 @@
   </si>
   <si>
     <t>* 음성의 고저, 속도, 힘 등의 특성을 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로법 인동지능 동향(Global_AI_Insight) vol.1</t>
+  </si>
+  <si>
+    <t>일상적인 법률 문서 자동화 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atrium</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>법무 컨설팅 기업의 업무 자동화에 대한 수요는 꾸준히 늘고 있는 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업 프로세스 자동화를 위한 AI 소프트웨어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사무 행정 프로세스 관리 지원 디지털봇에 대한 기업 수요는 기하급수적으로 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FortressIQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>???</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경비 지출 보고서, 송장, 계약서 등을 실시간으로 100% 자동 감사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Appzen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기업 비용 관리 투명성을 자동적으로 감시함으로써 불필요한 행정 비용 절감</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 기반 이메일 인터페이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Superhuman</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메일함 지원, 발송 취소, 리마인더, 일정 메시지, 읽기 상황 등에 AI 기능을 적용하여 관리 속도와 편의성 향상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日 Couger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 기반 감성 대화형 가상휴먼 에이전트 실증실험을 개시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">현재 챗봇 서비스는 텍스트 음성 기반의 1단계를 거쳐 시각자료를 활용할 수 있는 2단계인 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>지능형 비서intelligent assistant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 단계에 도달</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(IBM Watson) 관객이 원하는 작품을 기획하기 위해 Watson 인공지능 시스템을 제작 회의에 참여시켜 최적의 주제와 스토리 라인에 대한 정보 탐색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(ScriptBook) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>벨기에의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스타트업</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ScriptBook</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영화</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시나리오에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구문</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석을</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통해 캐릭터의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호감도와</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스토리라인의</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>긴장감</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>흥행에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>영향을</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>미칠</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>요소를</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파악하고 흥행</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능성에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다양한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>예측</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결과를</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제시</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>“</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>창작하는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인공지능”으로</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개발된</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Benjamin</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2016</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>첫</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시나리오를</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집필한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이어</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2018 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>년에는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> LSTM </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>신경망</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기술을</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바탕으로</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집필</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>역량을</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>향상시키고</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">단편영화 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;Zone Out&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통해</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시나리오</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>작가와</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감독</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>역할을</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수행</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목소리를</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분석해</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우울증을</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>감지하는</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기술에</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관한</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연구 논문이</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF555555"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>발표</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>University of Alberta의 박사과정 학생인 Mashrura Tasnim과 Eleni Stroulia 교수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>논문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Nemesysco) 음성분석 솔루션 업체 Nemesysco가 개발한 인공지능 알고리즘은 목소리에 반영된 스트레스 수준을 측정하여 고객센터 이용자의 감정 상태를 추정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MetLife) 보험 회사 MetLife의 콜센터에서는 인공지능이 고객의 목소리를 분석해 상담원 들에게 고객의 스트레스 수준 정보를 제공하고 있으며, 이를 통해 상담원들이 고객에 대한 공감 수준을 높이고 더 효과적인 대응 준비를 할 수 있도록 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>금융 - 고객관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글로법 인동지능 동향(Global_AI_Insight) vol.2</t>
+  </si>
+  <si>
+    <t>글로법 인동지능 동향(Global_AI_Insight) vol.4</t>
+  </si>
+  <si>
+    <t>* GPU 제조업체 Nvidia가 대화형 인공지능 언어모델 BERTBidirectional Encoder Representations from Transformers*의 훈련 시간을 53분 이내로 단축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* Nvidia는 인공지능의 NLP 성능 개선과 관련, 데이터세트에 대한 추론 속도 역시 비약적으로 향상시킨 것으로 발표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 대화형 인공지능의 훈련 속도와 추론 성능을 개선함으로써 챗봇, 지능형 개인 비서, 검색 엔진 서비스가 인간 수준의 대화까지 가능할 것으로 기대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 인공지능 분야 컨설팅기관 에메르즈(Emerj), 주요 산업 분야 20개 주목 챗봇 서비스 선정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(의료) 의료 서비스 제공사와 개인 환자를 대상으로 진단, 증상 추적 및 처방 추천 등을</t>
+  </si>
+  <si>
+    <t>중심으로 대화 기능을 제공</t>
+  </si>
+  <si>
+    <t>증상을 확인하며 사용자가 미리 입력한 과거 병력을 토대로 유사 증상 비교</t>
+  </si>
+  <si>
+    <t>※ ‘19.3월 시점 600만 명 이용자 확보</t>
+  </si>
+  <si>
+    <t>활용하며 챗봇으로 해결이 어려운 경우 자체 보유 의료진 연결</t>
+  </si>
+  <si>
+    <t>(standalone) 제품 형태로 의료 기관에 판매</t>
+  </si>
+  <si>
+    <t>의료 행정 서비스를 제공</t>
+  </si>
+  <si>
+    <t>행동치료법*을 활용한 대화 서비스를 제공</t>
+  </si>
+  <si>
+    <t>* 경험적 연구에 기반한 심리 및 사회적 개입 치료법으로 우울증 치료에 일반적으로 활용</t>
+  </si>
+  <si>
+    <t>※ ‘135개국의 이용자에 매 주 200만 건의 대화 메시지 전송(‘18년 초 기준)</t>
+  </si>
+  <si>
+    <t>- Ada Personal Health Guide(독일) : 통증의 정도와 부위에 관한 상세를 질문하여 환자의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Ask Babylon(영국) : Ada와 유사한 서비스 모델이나, 자체적으로 확보한 의료 데이터베이스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Symptomate(폴란드) : 환자 증상을 분석하여 정확한 의료상태 평가정보를 제공하며 별도의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- NextIT(미국) : 환자 의료상담을 지원하는 챗봇으로, 의료진 면담 일정 자동화, 약속 공지 등의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Woebot.io(미국) : 사용자가 제공하는 기분 상태의 정보를 추적하는 정신과 의료 서비스로, 인지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>• (보험) 보험 정책 확인, 보험 가입 및 고객서비스 질문과 관련된 대화형 애플리케이션 중심으로 제공</t>
+  </si>
+  <si>
+    <t>• (은행) 계좌 확인, 신용카드 신청, 융자 신청 등의 서비스를 하나 이상의 언어로 제공</t>
+  </si>
+  <si>
+    <t>※ ‘19.5월 5,200만 달러 투자 자금 유치(시리즈 B)</t>
+  </si>
+  <si>
+    <t>• (금융관리) 금융 상담과 출장 계획(출장 비용, 숙박 및 항공권 추천 등)이 관련된 챗봇 서비스 제공</t>
+  </si>
+  <si>
+    <t>※ ‘19.8월 시점 전 세계 6,000만 명 고객 확보</t>
+  </si>
+  <si>
+    <t>대한 대답 등 금융관리 서비스 제공</t>
+  </si>
+  <si>
+    <t>- Kinvey Native Chat(미국) : 보험 상담 일정 및 보험 정책 선택과 관련된 서비스 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Elafris(미국) : 보험료청구, 파일링, 클레임 모니터링 등 보험청구 절차 전반에 걸친 서비스 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 이외 Allstate Business Insurance Expert, Flo, Avaamo.ai 등이 언급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Finn AI(캐나다) : 은행 계좌 관리, 결제 등 각종 은행 서비스 지원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Clinc(미국) : 고객 은행 거래 내역을 토대로 고객 질문 대응 서비스 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 이외 Kasisto KAI, IBM Watson Conversation, Personetics 등이 언급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Personetics(이스라엘) : 거래 기록을 토대로 개인 최적화된 자금 관리 자문 서비스 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- Cleo AI(영국) : 계좌 잔액과 지출 고지서 내용 등을 토대로 고객의 구매 가능여부 질문에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 이외 Pana, Passage AI, Nuance Virtual Assistant, Digital Genius 등이 언급</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 챗봇 서비스는 단순한 패턴 매칭 단계를 넘어 자연어처리에 기반한 머신러닝 기술적용이 대세로 정착</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 향후 챗봇 기술의 발전을 위해서는 산업 분야별 데이터셋의 지속적인 확보와 함께 지능형 에이전트 기능 강화를 위한 알고리즘 연구 개발이 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* (AI 강화형 디지털 광고) 디지털 광고에서는 알고리즘과 빅데이터 분석을 토대로 고객 맞춤형 광고를 제공하는 이른바 ‘프로그래매틱programmatic 광고’가 큰 트렌드를 형성 중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음성 분석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;- &quot;@"/>
     <numFmt numFmtId="177" formatCode="\•\ @"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2241,13 +3722,35 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF555555"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -2304,7 +3807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2389,21 +3892,6 @@
     <xf numFmtId="177" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2424,6 +3912,30 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2458,7 +3970,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -2485,13 +3997,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>13941</xdr:colOff>
+      <xdr:colOff>21561</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2779,7 +4297,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3260,13 +4778,13 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B41" r:id="rId1" display="http://www.intelloid.com/"/>
-    <hyperlink ref="B43" r:id="rId2"/>
-    <hyperlink ref="B45" r:id="rId3" display="http://www.saltlux.com/"/>
-    <hyperlink ref="B46" r:id="rId4"/>
-    <hyperlink ref="B47" r:id="rId5"/>
-    <hyperlink ref="B48" r:id="rId6"/>
-    <hyperlink ref="B49" r:id="rId7"/>
+    <hyperlink ref="B41" r:id="rId1" display="http://www.intelloid.com/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B43" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B45" r:id="rId3" display="http://www.saltlux.com/" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B46" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B47" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B48" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B49" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
@@ -3274,7 +4792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3309,10 +4827,10 @@
       <c r="B7" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="40" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3320,15 +4838,15 @@
       <c r="B8" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B9" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B10" s="11"/>
@@ -3352,92 +4870,92 @@
       <c r="C14" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" spans="1:9" ht="120" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C15" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" spans="1:9" ht="93.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C16" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
     </row>
     <row r="17" spans="2:9" ht="126.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C17" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="2:9" ht="36.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C18" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
     </row>
     <row r="19" spans="2:9" ht="50.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C19" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="C20" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -3458,7 +4976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:XFD102"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
@@ -20350,8 +21868,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D95" r:id="rId1"/>
-    <hyperlink ref="D102" r:id="rId2"/>
+    <hyperlink ref="D95" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="D102" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId3"/>
@@ -20359,686 +21877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M74"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K75" sqref="K75"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="2" width="4.796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.59765625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="13" style="2" customWidth="1"/>
-    <col min="7" max="8" width="18.5" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" ht="31.2" x14ac:dyDescent="0.4">
-      <c r="B2" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="35" t="s">
-        <v>374</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>412</v>
-      </c>
-      <c r="F2" s="36" t="s">
-        <v>413</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>479</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C5" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C6" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C7" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C10" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C11" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C12" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C13" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C14" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C15" s="2" t="s">
-        <v>370</v>
-      </c>
-      <c r="J15" s="38" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="C16" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="J16" s="39" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C17" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C18" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C19" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C20" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C21" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C22" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C23" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B24" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="K24" s="34" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C25" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="K25" s="34" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C26" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="K26" s="34" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C28" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="K28" s="37" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C29" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="C30" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="D30" s="39" t="s">
-        <v>423</v>
-      </c>
-      <c r="E30" s="39" t="s">
-        <v>424</v>
-      </c>
-      <c r="F30" s="39" t="s">
-        <v>409</v>
-      </c>
-      <c r="G30" s="39" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="J31" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="D32" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="33" spans="4:13" x14ac:dyDescent="0.4">
-      <c r="D33" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="K33" s="16"/>
-    </row>
-    <row r="34" spans="4:13" x14ac:dyDescent="0.4">
-      <c r="D34" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="G34" s="37" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="35" spans="4:13" x14ac:dyDescent="0.4">
-      <c r="D35" s="2" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="36" spans="4:13" x14ac:dyDescent="0.4">
-      <c r="D36" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="G36" s="37" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="39" spans="4:13" x14ac:dyDescent="0.4">
-      <c r="D39" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="40" spans="4:13" x14ac:dyDescent="0.4">
-      <c r="D40" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="41" spans="4:13" x14ac:dyDescent="0.4">
-      <c r="L41" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="M41" s="2" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="42" spans="4:13" x14ac:dyDescent="0.4">
-      <c r="D42" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="M42" s="2" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="43" spans="4:13" x14ac:dyDescent="0.4">
-      <c r="L43" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="44" spans="4:13" x14ac:dyDescent="0.4">
-      <c r="L44" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="45" spans="4:13" x14ac:dyDescent="0.4">
-      <c r="L45" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="46" spans="4:13" x14ac:dyDescent="0.4">
-      <c r="K46" s="2" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="47" spans="4:13" x14ac:dyDescent="0.4">
-      <c r="K47" s="2" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="48" spans="4:13" x14ac:dyDescent="0.4">
-      <c r="K48" s="2" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="K49" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="K50" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="L51" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="L52" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="L53" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="L54" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="L55" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="L56" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="L57" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="J59" s="2" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="J60" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="I62" s="2" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-      <c r="J64" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="K65" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3"/>
-      <c r="I67" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="J68" s="2" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="J69" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="K70" s="2" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="K71" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="K72" s="37" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="K73" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="K74" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -21505,8 +22344,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J366"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -25723,12 +26562,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:H20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -25858,4 +26697,952 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:M76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="4.796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.8984375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="13" style="2" customWidth="1"/>
+    <col min="7" max="8" width="18.5" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="31.2" x14ac:dyDescent="0.4">
+      <c r="B2" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="30" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>412</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C5" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C6" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C7" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C10" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C11" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C12" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C13" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C14" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C15" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="J15" s="33" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="C16" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="J16" s="34" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C17" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C18" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C19" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C20" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C21" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C22" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C23" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B24" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C25" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C26" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B27" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C28" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="K28" s="32" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C29" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="C30" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="D30" s="34" t="s">
+        <v>423</v>
+      </c>
+      <c r="E30" s="34" t="s">
+        <v>424</v>
+      </c>
+      <c r="F30" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="G30" s="34" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="J31" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D32" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D33" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D34" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G34" s="32" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D35" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D36" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="G36" s="32" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="39" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D39" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="40" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D40" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="41" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="L41" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="42" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D42" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="43" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="L43" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="44" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="L44" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="45" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="C45" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="46" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D46" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="47" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D47" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" x14ac:dyDescent="0.4">
+      <c r="D48" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="D49" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B50" s="2">
+        <v>2</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B51" s="2">
+        <v>4</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="D52" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="D53" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="D54" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="D55" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="D56" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B57" s="35">
+        <v>6</v>
+      </c>
+      <c r="C57" s="35" t="str">
+        <f>"글로법 인동지능 동향(Global_AI_Insight) vol."&amp;B57</f>
+        <v>글로법 인동지능 동향(Global_AI_Insight) vol.6</v>
+      </c>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35" t="s">
+        <v>521</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="G58" s="35" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="G59" s="36" t="s">
+        <v>523</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B60" s="35">
+        <v>7</v>
+      </c>
+      <c r="C60" s="35" t="str">
+        <f>"글로법 인동지능 동향(Global_AI_Insight) vol."&amp;B60</f>
+        <v>글로법 인동지능 동향(Global_AI_Insight) vol.7</v>
+      </c>
+      <c r="G60" s="36" t="s">
+        <v>524</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="G61" s="2" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="E62" s="3"/>
+      <c r="G62" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="G63" s="36" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="J64" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="K65" s="2" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="I67" s="2" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="J68" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="J69" s="2" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="K70" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K71" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K72" s="32" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K73" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K74" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="I76" s="2">
+        <v>1</v>
+      </c>
+      <c r="J76" s="2" t="str">
+        <f>"글로법 인동지능 동향(Global_AI_Insight) vol."&amp;I76</f>
+        <v>글로법 인동지능 동향(Global_AI_Insight) vol.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4B2B302-91AF-40DA-A045-8041AF8BFC27}">
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="16384" width="8.796875" style="15"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="36" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B3" s="15" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B4" s="15" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B5" s="37" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B6" s="15" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B7" s="15" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B8" s="37" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B9" s="15" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B10" s="37" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B11" s="15" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B12" s="37" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B13" s="15" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B14" s="37" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B15" s="15" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="B16" s="15" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="15" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="15" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="37" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="37" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="37" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="15" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="37" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26" s="37" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27" s="15" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="37" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" s="15" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B31" s="37" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B32" s="15" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="37" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" s="15" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" s="37" t="s">
+        <v>554</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>